--- a/Sorption Experiments/RaASWOxic/RaASW.xlsx
+++ b/Sorption Experiments/RaASWOxic/RaASW.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaASWOxic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,7 +620,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -729,6 +729,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E231-429C-BCA5-9BA22AE8C8E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -802,6 +807,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E231-429C-BCA5-9BA22AE8C8E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -898,7 +908,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1023,6 +1033,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17C3-44C1-8556-085B5CBFB389}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1102,6 +1117,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17C3-44C1-8556-085B5CBFB389}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1214,7 +1234,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1246,7 +1272,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1571,7 +1603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1721,7 +1753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
@@ -2941,7 +2973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6319,7 +6351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6741,7 +6773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7743,11 +7775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
